--- a/dokumentasi/data database.xlsx
+++ b/dokumentasi/data database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kelulusan_app\dokumentasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB3C973-7CB5-4416-AB5E-FBD7522F1B5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956D3FE9-1A02-4352-BAAF-A93EB165183F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{516685DE-A538-49AF-AE08-76F573AFE53F}"/>
+    <workbookView xWindow="17670" yWindow="4500" windowWidth="21540" windowHeight="11385" activeTab="2" xr2:uid="{516685DE-A538-49AF-AE08-76F573AFE53F}"/>
   </bookViews>
   <sheets>
     <sheet name="data nilai" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="29">
   <si>
     <t>nilai_sbd</t>
   </si>
@@ -480,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CA613C-2917-4C3A-A24A-D3B56EDCBB37}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection sqref="A1:Q11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,7 +1062,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:Q29"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2334,15 +2334,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEB71BD-09B2-4E35-90E5-8029C34BCFBD}">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="5" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -3588,7 +3592,9 @@
       <c r="N27" s="1">
         <v>1</v>
       </c>
-      <c r="O27" s="1"/>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
       <c r="P27" s="1">
         <v>1</v>
       </c>
@@ -5069,6 +5075,503 @@
       <c r="P62" t="e">
         <f t="shared" si="11"/>
         <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" t="s">
+        <v>14</v>
+      </c>
+      <c r="J65" t="s">
+        <v>0</v>
+      </c>
+      <c r="K65" t="s">
+        <v>1</v>
+      </c>
+      <c r="L65" t="s">
+        <v>15</v>
+      </c>
+      <c r="M65" t="s">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>3</v>
+      </c>
+      <c r="O65" t="s">
+        <v>4</v>
+      </c>
+      <c r="P65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66">
+        <v>1.0806088422716662</v>
+      </c>
+      <c r="C66">
+        <v>0.9594891590286363</v>
+      </c>
+      <c r="D66">
+        <v>0.9852281360342523</v>
+      </c>
+      <c r="E66">
+        <v>0.97095059445466747</v>
+      </c>
+      <c r="F66">
+        <v>1.1324778276840195</v>
+      </c>
+      <c r="G66">
+        <v>0.88129089923069359</v>
+      </c>
+      <c r="H66">
+        <v>1.1302781873214744</v>
+      </c>
+      <c r="I66">
+        <v>0.99453868165000969</v>
+      </c>
+      <c r="J66">
+        <v>1.2443013992660279</v>
+      </c>
+      <c r="K66">
+        <v>0.99924924799565806</v>
+      </c>
+      <c r="L66">
+        <v>1.0874811770845803</v>
+      </c>
+      <c r="M66">
+        <v>0.89357110165419107</v>
+      </c>
+      <c r="N66">
+        <v>0.94861319823858214</v>
+      </c>
+      <c r="O66">
+        <v>0.9456603046006411</v>
+      </c>
+      <c r="P66">
+        <v>0.61361901959937037</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67">
+        <v>1.1784492665748538</v>
+      </c>
+      <c r="C67">
+        <v>0.88358508610525366</v>
+      </c>
+      <c r="D67">
+        <v>1.0596290442551399</v>
+      </c>
+      <c r="E67">
+        <v>1.0783878114938308</v>
+      </c>
+      <c r="F67">
+        <v>1.0199982742066709</v>
+      </c>
+      <c r="G67">
+        <v>1.0786784018779407</v>
+      </c>
+      <c r="H67">
+        <v>1.1029548176506492</v>
+      </c>
+      <c r="I67">
+        <v>0.7292739418449411</v>
+      </c>
+      <c r="J67">
+        <v>0.97641430811548635</v>
+      </c>
+      <c r="K67">
+        <v>1.0353391846261593</v>
+      </c>
+      <c r="L67">
+        <v>0.8524051786494784</v>
+      </c>
+      <c r="M67">
+        <v>0.76226880253565055</v>
+      </c>
+      <c r="N67">
+        <v>1.2717822215998</v>
+      </c>
+      <c r="O67">
+        <v>1.113262584028927</v>
+      </c>
+      <c r="P67">
+        <v>0.49123734182433298</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68">
+        <v>0.8886466698980795</v>
+      </c>
+      <c r="C68">
+        <v>1.1163259079041166</v>
+      </c>
+      <c r="D68">
+        <v>0.87044411041041991</v>
+      </c>
+      <c r="E68">
+        <v>1.0552912843916051</v>
+      </c>
+      <c r="F68">
+        <v>0.54356444319959651</v>
+      </c>
+      <c r="G68">
+        <v>0.81127812445913294</v>
+      </c>
+      <c r="H68">
+        <v>0.89301081004460281</v>
+      </c>
+      <c r="I68">
+        <v>0.66657835799491971</v>
+      </c>
+      <c r="J68">
+        <v>0.75361400668414558</v>
+      </c>
+      <c r="K68">
+        <v>1.0246284743137677</v>
+      </c>
+      <c r="L68">
+        <v>1.0536396327067679</v>
+      </c>
+      <c r="M68">
+        <v>1.1552539778961757</v>
+      </c>
+      <c r="N68">
+        <v>0.87398104812735866</v>
+      </c>
+      <c r="O68">
+        <v>0.94119451746509308</v>
+      </c>
+      <c r="P68">
+        <v>1.1480604635234188</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69">
+        <v>0.81127812445913294</v>
+      </c>
+      <c r="C69">
+        <v>0.42806962922930625</v>
+      </c>
+      <c r="D69">
+        <v>0.80717382628699208</v>
+      </c>
+      <c r="E69">
+        <v>0.87582669971899207</v>
+      </c>
+      <c r="F69">
+        <v>0.74248756954212447</v>
+      </c>
+      <c r="G69">
+        <v>0.6464597756511028</v>
+      </c>
+      <c r="H69">
+        <v>0.8611247055579303</v>
+      </c>
+      <c r="I69">
+        <v>0.85738285752982057</v>
+      </c>
+      <c r="J69">
+        <v>0.50325833477564508</v>
+      </c>
+      <c r="K69">
+        <v>0.8794587736429037</v>
+      </c>
+      <c r="L69">
+        <v>0.72768745456566508</v>
+      </c>
+      <c r="M69">
+        <v>0.69192788500588598</v>
+      </c>
+      <c r="N69">
+        <v>0.86913758061263735</v>
+      </c>
+      <c r="O69">
+        <v>0.59446347156796664</v>
+      </c>
+      <c r="P69">
+        <v>0.71725247773756995</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70">
+        <v>0.73031848894074791</v>
+      </c>
+      <c r="C70">
+        <v>0.60060857541318713</v>
+      </c>
+      <c r="D70">
+        <v>0.68876503872269557</v>
+      </c>
+      <c r="E70">
+        <v>0.60471972149847186</v>
+      </c>
+      <c r="F70">
+        <v>0.6739468651941154</v>
+      </c>
+      <c r="G70">
+        <v>0.6305062394675911</v>
+      </c>
+      <c r="H70">
+        <v>0.51424671789923604</v>
+      </c>
+      <c r="I70">
+        <v>0.83503955280160991</v>
+      </c>
+      <c r="J70">
+        <v>0.7495952572594804</v>
+      </c>
+      <c r="K70">
+        <v>0.58975186546044134</v>
+      </c>
+      <c r="L70">
+        <v>0.85884851010514396</v>
+      </c>
+      <c r="M70">
+        <v>0.61938219467876343</v>
+      </c>
+      <c r="N70">
+        <v>0.71271873153280729</v>
+      </c>
+      <c r="O70">
+        <v>0.31933738653397287</v>
+      </c>
+      <c r="P70">
+        <v>0.67153390829274595</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71">
+        <v>0.52545067990862082</v>
+      </c>
+      <c r="C71">
+        <v>0.61938219467876343</v>
+      </c>
+      <c r="D71">
+        <v>0.52545067990862082</v>
+      </c>
+      <c r="E71">
+        <v>0.57879462463212006</v>
+      </c>
+      <c r="F71">
+        <v>0.70883567333219655</v>
+      </c>
+      <c r="G71">
+        <v>0.82126800872682149</v>
+      </c>
+      <c r="H71">
+        <v>0.51765162850930613</v>
+      </c>
+      <c r="I71">
+        <v>0.79795196846557315</v>
+      </c>
+      <c r="J71">
+        <v>0.78299245016109154</v>
+      </c>
+      <c r="K71">
+        <v>0.62263431625470989</v>
+      </c>
+      <c r="L71">
+        <v>0.5776539033535637</v>
+      </c>
+      <c r="M71">
+        <v>0.20062232431271465</v>
+      </c>
+      <c r="N71">
+        <v>0.59834742209104208</v>
+      </c>
+      <c r="O71">
+        <v>0.16866093149667016</v>
+      </c>
+      <c r="P71">
+        <v>0.48206614808309262</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72">
+        <v>0.52545067990862082</v>
+      </c>
+      <c r="C72">
+        <v>0.71067685385612311</v>
+      </c>
+      <c r="D72">
+        <v>0.61616619340053591</v>
+      </c>
+      <c r="E72">
+        <v>0.49123734182433298</v>
+      </c>
+      <c r="F72">
+        <v>0.56310282375139165</v>
+      </c>
+      <c r="G72">
+        <v>0.3650551896402851</v>
+      </c>
+      <c r="H72">
+        <v>0.51270914203087714</v>
+      </c>
+      <c r="I72">
+        <v>0.85078293632677604</v>
+      </c>
+      <c r="J72">
+        <v>0.468995593589281</v>
+      </c>
+      <c r="K72">
+        <v>0.45668363153944297</v>
+      </c>
+      <c r="L72">
+        <v>0.62526240522342302</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0.21084230031853218</v>
+      </c>
+      <c r="O72">
+        <v>0.45371633918694498</v>
+      </c>
+      <c r="P72">
+        <v>0.82805572537950511</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73">
+        <v>0.39553780645647779</v>
+      </c>
+      <c r="C73">
+        <v>0.19590927087360482</v>
+      </c>
+      <c r="D73">
+        <v>0.54356444319959651</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0.36205125173399821</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0.40217919020227344</v>
+      </c>
+      <c r="I73">
+        <v>0.38094658570539036</v>
+      </c>
+      <c r="J73">
+        <v>1.2309595631140116</v>
+      </c>
+      <c r="K73">
+        <v>0.43561337348743168</v>
+      </c>
+      <c r="L73">
+        <v>0.43949698692151362</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0.24602257822033166</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0.81127812445913294</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74">
+        <v>0.58587329286192047</v>
+      </c>
+      <c r="C74">
+        <v>0.650022421648355</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0.37123232664087613</v>
+      </c>
+      <c r="G74">
+        <v>0.59167277858232681</v>
+      </c>
+      <c r="H74">
+        <v>0.21639693245126462</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0.50325833477564508</v>
+      </c>
+      <c r="L74">
+        <v>0.55862937345219998</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0.54356444319959651</v>
       </c>
     </row>
   </sheetData>
@@ -5091,8 +5594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF9915E-6AF5-4057-91FC-EB1F567023C4}">
   <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7744,6 +8247,9 @@
       <c r="D56">
         <f>(-((B56/B59)*IMLOG2(B56/B59))-((B57/B59)*IMLOG2(B57/B59))-((B58/B59)*IMLOG2(B58/B59)))</f>
         <v>0.82457337696919764</v>
+      </c>
+      <c r="E56">
+        <v>0.82457337696919797</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
@@ -11627,7 +12133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39385ED6-0CED-487C-BD89-03BA1463BCD5}">
   <dimension ref="A1:Q123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="W29" sqref="W29"/>
     </sheetView>
   </sheetViews>
